--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <s:sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="270" yWindow="615" windowWidth="15015" windowHeight="5325"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>ColumnA</t>
   </si>
@@ -97,25 +97,42 @@
   </si>
   <si>
     <t>sa</t>
+  </si>
+  <si>
+    <t>WithÑ</t>
+  </si>
+  <si>
+    <t>WÍTHTILDE</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>dsd</t>
+  </si>
+  <si>
+    <t>sdsd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -131,16 +148,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -430,127 +452,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10.42578125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="11.140625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="10"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="str">
         <f>IF($A$1=$B$1, "COINCIDE", "PASS")</f>
-        <v/>
+        <v>PASS</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f>IF($A$2=$B$2, "COINCIDE", "PASS")</f>
-        <v/>
+        <v>COINCIDE</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <f>IF($A$3=$B$3, "COINCIDE", "PASS")</f>
-        <v/>
+        <v>COINCIDE</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <f>IF($A$4=$B$4, "COINCIDE", "PASS")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C13" si="0">IF($A$2=$B$2, "COINCIDE", "PASS")</f>
+        <v>COINCIDE</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C13" si="1">IF($A$3=$B$3, "COINCIDE", "PASS")</f>
+        <v>COINCIDE</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C13" si="2">IF($A$4=$B$4, "COINCIDE", "PASS")</f>
+        <v>PASS</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" ref="C8:C13" si="3">IF($A$2=$B$2, "COINCIDE", "PASS")</f>
+        <v>COINCIDE</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ref="C9:C13" si="4">IF($A$3=$B$3, "COINCIDE", "PASS")</f>
+        <v>COINCIDE</v>
+      </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C13" si="5">IF($A$4=$B$4, "COINCIDE", "PASS")</f>
+        <v>PASS</v>
+      </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f t="shared" ref="C11:C13" si="6">IF($A$2=$B$2, "COINCIDE", "PASS")</f>
+        <v>COINCIDE</v>
+      </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" ref="C12:C13" si="7">IF($A$3=$B$3, "COINCIDE", "PASS")</f>
+        <v>COINCIDE</v>
+      </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" ref="C13" si="8">IF($A$4=$B$4, "COINCIDE", "PASS")</f>
+        <v>PASS</v>
+      </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -561,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>15</v>
       </c>
@@ -572,56 +696,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -629,17 +749,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -647,7 +767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -655,7 +775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -663,7 +783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -671,17 +791,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>ColumnA</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>sdsd</t>
+  </si>
+  <si>
+    <t>RESULT</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,9 +476,8 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <f>IF($A$1=$B$1, "COINCIDE", "PASS")</f>
-        <v>PASS</v>
+      <c r="C1" t="s">
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -549,7 +551,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C13" si="0">IF($A$2=$B$2, "COINCIDE", "PASS")</f>
+        <f t="shared" ref="C5" si="0">IF($A$2=$B$2, "COINCIDE", "PASS")</f>
         <v>COINCIDE</v>
       </c>
       <c r="E5" t="s">
@@ -561,7 +563,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="str">
-        <f t="shared" ref="C6:C13" si="1">IF($A$3=$B$3, "COINCIDE", "PASS")</f>
+        <f t="shared" ref="C6" si="1">IF($A$3=$B$3, "COINCIDE", "PASS")</f>
         <v>COINCIDE</v>
       </c>
       <c r="E6" t="s">
@@ -573,7 +575,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C13" si="2">IF($A$4=$B$4, "COINCIDE", "PASS")</f>
+        <f t="shared" ref="C7" si="2">IF($A$4=$B$4, "COINCIDE", "PASS")</f>
         <v>PASS</v>
       </c>
       <c r="F7">
@@ -582,7 +584,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="str">
-        <f t="shared" ref="C8:C13" si="3">IF($A$2=$B$2, "COINCIDE", "PASS")</f>
+        <f t="shared" ref="C8" si="3">IF($A$2=$B$2, "COINCIDE", "PASS")</f>
         <v>COINCIDE</v>
       </c>
       <c r="F8">
@@ -594,7 +596,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ref="C9:C13" si="4">IF($A$3=$B$3, "COINCIDE", "PASS")</f>
+        <f t="shared" ref="C9" si="4">IF($A$3=$B$3, "COINCIDE", "PASS")</f>
         <v>COINCIDE</v>
       </c>
       <c r="D9" t="s">
@@ -606,7 +608,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C13" si="5">IF($A$4=$B$4, "COINCIDE", "PASS")</f>
+        <f t="shared" ref="C10" si="5">IF($A$4=$B$4, "COINCIDE", "PASS")</f>
         <v>PASS</v>
       </c>
       <c r="D10" t="s">
@@ -618,7 +620,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="str">
-        <f t="shared" ref="C11:C13" si="6">IF($A$2=$B$2, "COINCIDE", "PASS")</f>
+        <f t="shared" ref="C11" si="6">IF($A$2=$B$2, "COINCIDE", "PASS")</f>
         <v>COINCIDE</v>
       </c>
       <c r="D11" t="s">
@@ -633,7 +635,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="str">
-        <f t="shared" ref="C12:C13" si="7">IF($A$3=$B$3, "COINCIDE", "PASS")</f>
+        <f t="shared" ref="C12" si="7">IF($A$3=$B$3, "COINCIDE", "PASS")</f>
         <v>COINCIDE</v>
       </c>
       <c r="D12" t="s">
